--- a/teaching/traditional_assets/database/data/georgia/georgia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/georgia/georgia_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.215</v>
+        <v>0.133</v>
       </c>
       <c r="E2">
-        <v>0.273</v>
+        <v>0.146</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009844302920481293</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009096767618498222</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>172</v>
+        <v>114.9</v>
       </c>
       <c r="L2">
-        <v>0.5066273932253313</v>
+        <v>0.4368821292775666</v>
       </c>
       <c r="M2">
-        <v>31.1</v>
+        <v>0.606</v>
       </c>
       <c r="N2">
-        <v>0.03275063184498737</v>
+        <v>0.0006530172413793103</v>
       </c>
       <c r="O2">
-        <v>0.1808139534883721</v>
+        <v>0.005274151436031331</v>
       </c>
       <c r="P2">
-        <v>31.1</v>
+        <v>0.606</v>
       </c>
       <c r="Q2">
-        <v>0.03275063184498737</v>
+        <v>0.0006530172413793103</v>
       </c>
       <c r="R2">
-        <v>0.1808139534883721</v>
+        <v>0.005274151436031331</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>456.6</v>
+        <v>442.5</v>
       </c>
       <c r="V2">
-        <v>0.4808340353833193</v>
+        <v>0.4768318965517241</v>
       </c>
       <c r="W2">
-        <v>0.2192199847055825</v>
+        <v>0.136250444681608</v>
       </c>
       <c r="X2">
-        <v>0.1071772982493309</v>
+        <v>0.1111128840395408</v>
       </c>
       <c r="Y2">
-        <v>0.1120426864562515</v>
+        <v>0.02513756064206718</v>
       </c>
       <c r="Z2">
-        <v>0.2052985411853346</v>
+        <v>0.1173635592842162</v>
       </c>
       <c r="AA2">
-        <v>0.001867553121579675</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06947095997874393</v>
+        <v>0.06599220328306395</v>
       </c>
       <c r="AC2">
-        <v>-0.06760340685716426</v>
+        <v>-0.06599220328306395</v>
       </c>
       <c r="AD2">
-        <v>1875.6</v>
+        <v>1947.9</v>
       </c>
       <c r="AE2">
-        <v>3.889295792483006</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1879.489295792483</v>
+        <v>1947.9</v>
       </c>
       <c r="AG2">
-        <v>1422.889295792483</v>
+        <v>1505.4</v>
       </c>
       <c r="AH2">
-        <v>0.664344281598931</v>
+        <v>0.6773184046733197</v>
       </c>
       <c r="AI2">
-        <v>0.6896729334341264</v>
+        <v>0.6937954124519161</v>
       </c>
       <c r="AJ2">
-        <v>0.5997452963500917</v>
+        <v>0.6186405851894469</v>
       </c>
       <c r="AK2">
-        <v>0.6272132635164477</v>
+        <v>0.6365058559891759</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>455.2427184466019</v>
-      </c>
-      <c r="AP2">
-        <v>345.3614795612822</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.215</v>
+        <v>0.133</v>
       </c>
       <c r="E3">
-        <v>0.273</v>
+        <v>0.146</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009844302920481293</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009096767618498222</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>172</v>
+        <v>114.9</v>
       </c>
       <c r="L3">
-        <v>0.5066273932253313</v>
+        <v>0.4368821292775666</v>
       </c>
       <c r="M3">
-        <v>31.1</v>
+        <v>0.606</v>
       </c>
       <c r="N3">
-        <v>0.03275063184498737</v>
+        <v>0.0006530172413793103</v>
       </c>
       <c r="O3">
-        <v>0.1808139534883721</v>
+        <v>0.005274151436031331</v>
       </c>
       <c r="P3">
-        <v>31.1</v>
+        <v>0.606</v>
       </c>
       <c r="Q3">
-        <v>0.03275063184498737</v>
+        <v>0.0006530172413793103</v>
       </c>
       <c r="R3">
-        <v>0.1808139534883721</v>
+        <v>0.005274151436031331</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>456.6</v>
+        <v>442.5</v>
       </c>
       <c r="V3">
-        <v>0.4808340353833193</v>
+        <v>0.4768318965517241</v>
       </c>
       <c r="W3">
-        <v>0.2192199847055825</v>
+        <v>0.136250444681608</v>
       </c>
       <c r="X3">
-        <v>0.1071772982493309</v>
+        <v>0.1111128840395408</v>
       </c>
       <c r="Y3">
-        <v>0.1120426864562515</v>
+        <v>0.02513756064206718</v>
       </c>
       <c r="Z3">
-        <v>0.2052985411853346</v>
+        <v>0.1173635592842162</v>
       </c>
       <c r="AA3">
-        <v>0.001867553121579675</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06947095997874393</v>
+        <v>0.06599220328306395</v>
       </c>
       <c r="AC3">
-        <v>-0.06760340685716426</v>
+        <v>-0.06599220328306395</v>
       </c>
       <c r="AD3">
-        <v>1875.6</v>
+        <v>1947.9</v>
       </c>
       <c r="AE3">
-        <v>3.889295792483006</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1879.489295792483</v>
+        <v>1947.9</v>
       </c>
       <c r="AG3">
-        <v>1422.889295792483</v>
+        <v>1505.4</v>
       </c>
       <c r="AH3">
-        <v>0.664344281598931</v>
+        <v>0.6773184046733197</v>
       </c>
       <c r="AI3">
-        <v>0.6896729334341264</v>
+        <v>0.6937954124519161</v>
       </c>
       <c r="AJ3">
-        <v>0.5997452963500917</v>
+        <v>0.6186405851894469</v>
       </c>
       <c r="AK3">
-        <v>0.6272132635164477</v>
+        <v>0.6365058559891759</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>455.2427184466019</v>
-      </c>
-      <c r="AP3">
-        <v>345.3614795612822</v>
       </c>
     </row>
   </sheetData>
